--- a/app/Licenciatura_em_Filosofia.xlsx
+++ b/app/Licenciatura_em_Filosofia.xlsx
@@ -13,66 +13,64 @@
     <sheet name="20152294" sheetId="3" r:id="rId6"/>
     <sheet name="20152314" sheetId="4" r:id="rId7"/>
     <sheet name="20152359" sheetId="5" r:id="rId8"/>
-    <sheet name="20154445" sheetId="6" r:id="rId9"/>
-    <sheet name="20152373" sheetId="7" r:id="rId10"/>
-    <sheet name="20152304" sheetId="8" r:id="rId11"/>
-    <sheet name="20152320" sheetId="9" r:id="rId12"/>
-    <sheet name="20152319" sheetId="10" r:id="rId13"/>
-    <sheet name="20152371" sheetId="11" r:id="rId14"/>
-    <sheet name="20152321" sheetId="12" r:id="rId15"/>
-    <sheet name="20152312" sheetId="13" r:id="rId16"/>
-    <sheet name="20152364" sheetId="14" r:id="rId17"/>
-    <sheet name="20152317" sheetId="15" r:id="rId18"/>
-    <sheet name="20152315" sheetId="16" r:id="rId19"/>
-    <sheet name="20152288" sheetId="17" r:id="rId20"/>
-    <sheet name="20152295" sheetId="18" r:id="rId21"/>
-    <sheet name="20152292" sheetId="19" r:id="rId22"/>
-    <sheet name="20152325" sheetId="20" r:id="rId23"/>
-    <sheet name="20152360" sheetId="21" r:id="rId24"/>
-    <sheet name="20152297" sheetId="22" r:id="rId25"/>
-    <sheet name="20152293" sheetId="23" r:id="rId26"/>
-    <sheet name="20152370" sheetId="24" r:id="rId27"/>
-    <sheet name="20152303" sheetId="25" r:id="rId28"/>
-    <sheet name="20152291" sheetId="26" r:id="rId29"/>
-    <sheet name="20152374" sheetId="27" r:id="rId30"/>
-    <sheet name="20152298" sheetId="28" r:id="rId31"/>
-    <sheet name="20152300" sheetId="29" r:id="rId32"/>
-    <sheet name="20152287" sheetId="30" r:id="rId33"/>
-    <sheet name="20152363" sheetId="31" r:id="rId34"/>
-    <sheet name="20152316" sheetId="32" r:id="rId35"/>
-    <sheet name="20152311" sheetId="33" r:id="rId36"/>
-    <sheet name="20152318" sheetId="34" r:id="rId37"/>
-    <sheet name="20152305" sheetId="35" r:id="rId38"/>
-    <sheet name="20152302" sheetId="36" r:id="rId39"/>
-    <sheet name="20152308" sheetId="37" r:id="rId40"/>
-    <sheet name="20152361" sheetId="38" r:id="rId41"/>
-    <sheet name="20152285" sheetId="39" r:id="rId42"/>
-    <sheet name="20152309" sheetId="40" r:id="rId43"/>
-    <sheet name="20152367" sheetId="41" r:id="rId44"/>
-    <sheet name="20152299" sheetId="42" r:id="rId45"/>
-    <sheet name="20152286" sheetId="43" r:id="rId46"/>
-    <sheet name="20152365" sheetId="44" r:id="rId47"/>
-    <sheet name="20152306" sheetId="45" r:id="rId48"/>
-    <sheet name="20152362" sheetId="46" r:id="rId49"/>
-    <sheet name="20154446" sheetId="47" r:id="rId50"/>
-    <sheet name="20152289" sheetId="48" r:id="rId51"/>
-    <sheet name="20152323" sheetId="49" r:id="rId52"/>
-    <sheet name="20152324" sheetId="50" r:id="rId53"/>
-    <sheet name="20152358" sheetId="51" r:id="rId54"/>
-    <sheet name="20152322" sheetId="52" r:id="rId55"/>
-    <sheet name="20152369" sheetId="53" r:id="rId56"/>
-    <sheet name="20152310" sheetId="54" r:id="rId57"/>
-    <sheet name="20152372" sheetId="55" r:id="rId58"/>
-    <sheet name="20152366" sheetId="56" r:id="rId59"/>
-    <sheet name="20152375" sheetId="57" r:id="rId60"/>
-    <sheet name="20152313" sheetId="58" r:id="rId61"/>
-    <sheet name="20152326" sheetId="59" r:id="rId62"/>
-    <sheet name="20152296" sheetId="60" r:id="rId63"/>
-    <sheet name="20152290" sheetId="61" r:id="rId64"/>
-    <sheet name="20152368" sheetId="62" r:id="rId65"/>
-    <sheet name="20152307" sheetId="63" r:id="rId66"/>
-    <sheet name="Sheet2" sheetId="64" r:id="rId67"/>
-    <sheet name="Sheet3" sheetId="65" r:id="rId68"/>
+    <sheet name="20152373" sheetId="6" r:id="rId9"/>
+    <sheet name="20152304" sheetId="7" r:id="rId10"/>
+    <sheet name="20152320" sheetId="8" r:id="rId11"/>
+    <sheet name="20152319" sheetId="9" r:id="rId12"/>
+    <sheet name="20152371" sheetId="10" r:id="rId13"/>
+    <sheet name="20152321" sheetId="11" r:id="rId14"/>
+    <sheet name="20152312" sheetId="12" r:id="rId15"/>
+    <sheet name="20152364" sheetId="13" r:id="rId16"/>
+    <sheet name="20152317" sheetId="14" r:id="rId17"/>
+    <sheet name="20152315" sheetId="15" r:id="rId18"/>
+    <sheet name="20152288" sheetId="16" r:id="rId19"/>
+    <sheet name="20152295" sheetId="17" r:id="rId20"/>
+    <sheet name="20152292" sheetId="18" r:id="rId21"/>
+    <sheet name="20152325" sheetId="19" r:id="rId22"/>
+    <sheet name="20152360" sheetId="20" r:id="rId23"/>
+    <sheet name="20152297" sheetId="21" r:id="rId24"/>
+    <sheet name="20152293" sheetId="22" r:id="rId25"/>
+    <sheet name="20152370" sheetId="23" r:id="rId26"/>
+    <sheet name="20152303" sheetId="24" r:id="rId27"/>
+    <sheet name="20152291" sheetId="25" r:id="rId28"/>
+    <sheet name="20152374" sheetId="26" r:id="rId29"/>
+    <sheet name="20152298" sheetId="27" r:id="rId30"/>
+    <sheet name="20152300" sheetId="28" r:id="rId31"/>
+    <sheet name="20152287" sheetId="29" r:id="rId32"/>
+    <sheet name="20152363" sheetId="30" r:id="rId33"/>
+    <sheet name="20152316" sheetId="31" r:id="rId34"/>
+    <sheet name="20152311" sheetId="32" r:id="rId35"/>
+    <sheet name="20152318" sheetId="33" r:id="rId36"/>
+    <sheet name="20152305" sheetId="34" r:id="rId37"/>
+    <sheet name="20152302" sheetId="35" r:id="rId38"/>
+    <sheet name="20152308" sheetId="36" r:id="rId39"/>
+    <sheet name="20152361" sheetId="37" r:id="rId40"/>
+    <sheet name="20152285" sheetId="38" r:id="rId41"/>
+    <sheet name="20152309" sheetId="39" r:id="rId42"/>
+    <sheet name="20152367" sheetId="40" r:id="rId43"/>
+    <sheet name="20152299" sheetId="41" r:id="rId44"/>
+    <sheet name="20152286" sheetId="42" r:id="rId45"/>
+    <sheet name="20152365" sheetId="43" r:id="rId46"/>
+    <sheet name="20152306" sheetId="44" r:id="rId47"/>
+    <sheet name="20152362" sheetId="45" r:id="rId48"/>
+    <sheet name="20152289" sheetId="46" r:id="rId49"/>
+    <sheet name="20152323" sheetId="47" r:id="rId50"/>
+    <sheet name="20152324" sheetId="48" r:id="rId51"/>
+    <sheet name="20152358" sheetId="49" r:id="rId52"/>
+    <sheet name="20152322" sheetId="50" r:id="rId53"/>
+    <sheet name="20152369" sheetId="51" r:id="rId54"/>
+    <sheet name="20152310" sheetId="52" r:id="rId55"/>
+    <sheet name="20152372" sheetId="53" r:id="rId56"/>
+    <sheet name="20152366" sheetId="54" r:id="rId57"/>
+    <sheet name="20152375" sheetId="55" r:id="rId58"/>
+    <sheet name="20152313" sheetId="56" r:id="rId59"/>
+    <sheet name="20152326" sheetId="57" r:id="rId60"/>
+    <sheet name="20152296" sheetId="58" r:id="rId61"/>
+    <sheet name="20152290" sheetId="59" r:id="rId62"/>
+    <sheet name="20152368" sheetId="60" r:id="rId63"/>
+    <sheet name="20152307" sheetId="61" r:id="rId64"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId65"/>
+    <sheet name="Sheet3" sheetId="63" r:id="rId66"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="487">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -229,9 +227,6 @@
     <t>Aida Ernesto Macitelane Majante</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -268,9 +263,6 @@
     <t>Rofina Francisco Chitive</t>
   </si>
   <si>
-    <t>Distrito de Namaacha</t>
-  </si>
-  <si>
     <t>110102251856B</t>
   </si>
   <si>
@@ -292,9 +284,6 @@
     <t>Virginia Varela</t>
   </si>
   <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -331,15 +320,6 @@
     <t>Escola Secundaria da Zona-Verde</t>
   </si>
   <si>
-    <t>Sumbane</t>
-  </si>
-  <si>
-    <t>Baptista Carlos</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Rungo</t>
   </si>
   <si>
@@ -379,9 +359,6 @@
     <t>Rosa Jaime</t>
   </si>
   <si>
-    <t>Distrito de Milange</t>
-  </si>
-  <si>
     <t>040100360436C</t>
   </si>
   <si>
@@ -406,9 +383,6 @@
     <t>Maria Zefanias Sitoe</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>090302732029C</t>
   </si>
   <si>
@@ -433,9 +407,6 @@
     <t>Anita Vasco Nhantumbo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500174457I</t>
   </si>
   <si>
@@ -505,9 +476,6 @@
     <t>Fernanda Rafael Samo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>080700826230B</t>
   </si>
   <si>
@@ -532,9 +500,6 @@
     <t>Gloria Quimau Massingue</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110102195958F</t>
   </si>
   <si>
@@ -556,9 +521,6 @@
     <t>Benjamim Inacio Luis</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040900394126N</t>
   </si>
   <si>
@@ -583,9 +545,6 @@
     <t>Adelia Joaquim</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -610,9 +569,6 @@
     <t>LuÍsa EfigÊnia Mulungo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110202244955S</t>
   </si>
   <si>
@@ -727,9 +683,6 @@
     <t>Hagy Jamal</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020102756683B</t>
   </si>
   <si>
@@ -754,9 +707,6 @@
     <t>Enia Zefanias Mute</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>080100874913J</t>
   </si>
   <si>
@@ -781,9 +731,6 @@
     <t>Lidia Issaia Mainga</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101490536B</t>
   </si>
   <si>
@@ -832,9 +779,6 @@
     <t>Isabel Alberto Chimene</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>110500452202I</t>
   </si>
   <si>
@@ -1105,9 +1049,6 @@
     <t>Angelina JosÉ</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>060101076355Q</t>
   </si>
   <si>
@@ -1132,9 +1073,6 @@
     <t>Henriqueta L. Mandimba</t>
   </si>
   <si>
-    <t>Distrito de Machaze</t>
-  </si>
-  <si>
     <t>060502763170C</t>
   </si>
   <si>
@@ -1198,9 +1136,6 @@
     <t>Rosita Jossai Cuna</t>
   </si>
   <si>
-    <t>Distrito de Moamba</t>
-  </si>
-  <si>
     <t>110201380334B</t>
   </si>
   <si>
@@ -1273,9 +1208,6 @@
     <t>+258840374778</t>
   </si>
   <si>
-    <t>Cecy Teresa Alfredo</t>
-  </si>
-  <si>
     <t>Cossa</t>
   </si>
   <si>
@@ -1309,9 +1241,6 @@
     <t xml:space="preserve">Roda Paulo Chauque </t>
   </si>
   <si>
-    <t>Distrito de Massangena</t>
-  </si>
-  <si>
     <t>+258827626377</t>
   </si>
   <si>
@@ -1330,9 +1259,6 @@
     <t>Marta Chadreque</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080102644074A</t>
   </si>
   <si>
@@ -1483,9 +1409,6 @@
     <t>Adelaide Matsimbe</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>+258827503170</t>
   </si>
   <si>
@@ -1607,9 +1530,6 @@
   </si>
   <si>
     <t>Fauzate Augusto</t>
-  </si>
-  <si>
-    <t>Cidade de Nampula</t>
   </si>
   <si>
     <t>030101371919F</t>
@@ -2854,7 +2774,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152319</v>
+        <v>20152371</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2957,9 +2877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2967,7 +2885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2978,7 +2896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2987,7 +2905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2999,7 +2917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3007,7 +2925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3103,7 +3021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3130,7 +3048,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3146,7 +3064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3449,7 +3367,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152371</v>
+        <v>20152321</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3473,7 +3391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3489,7 +3407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3505,7 +3423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3521,7 +3439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3537,7 +3455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3552,9 +3470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3562,7 +3478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3573,7 +3489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3582,7 +3498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3594,7 +3510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3602,7 +3518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3698,7 +3614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3741,7 +3657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4044,7 +3960,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152321</v>
+        <v>20152312</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4068,7 +3984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4084,7 +4000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4100,7 +4016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4116,7 +4032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4132,7 +4048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4147,9 +4063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4157,7 +4071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4168,7 +4082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4177,7 +4091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4189,7 +4103,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4197,7 +4111,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4293,7 +4207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4320,7 +4234,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4336,7 +4250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4639,7 +4553,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152312</v>
+        <v>20152364</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4663,7 +4577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4679,7 +4593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4695,7 +4609,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4711,7 +4625,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4727,7 +4641,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4742,9 +4656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4752,7 +4664,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4763,7 +4675,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4772,7 +4684,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4784,7 +4696,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4792,7 +4704,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4888,7 +4800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4915,7 +4827,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4931,7 +4843,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5234,7 +5146,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152364</v>
+        <v>20152317</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5258,7 +5170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5274,7 +5186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5290,7 +5202,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5306,7 +5218,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5321,9 +5233,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5337,9 +5247,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5347,7 +5255,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5358,7 +5266,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5367,7 +5275,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5379,7 +5287,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5387,7 +5295,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5483,7 +5391,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5510,7 +5418,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5526,7 +5434,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5829,7 +5737,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152317</v>
+        <v>20152315</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5853,7 +5761,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5869,7 +5777,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5885,7 +5793,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5901,7 +5809,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5916,7 +5824,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5930,9 +5840,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5940,7 +5848,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5951,7 +5859,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5960,7 +5868,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5972,15 +5880,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>159</v>
+      <c r="H17" s="20">
+        <v>80076586</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6076,7 +5984,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6119,7 +6027,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6422,7 +6330,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152315</v>
+        <v>20152288</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6446,7 +6354,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6462,7 +6370,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6478,7 +6386,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6494,7 +6402,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6510,7 +6418,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6525,9 +6433,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>167</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6535,7 +6441,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6546,7 +6452,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6555,7 +6461,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6567,15 +6473,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>80076586</v>
+      <c r="H17" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6671,7 +6577,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6714,7 +6620,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7017,7 +6923,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152288</v>
+        <v>20152295</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7041,7 +6947,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7057,7 +6963,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7073,7 +6979,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7089,7 +6995,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7105,7 +7011,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7120,9 +7026,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7130,7 +7034,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7141,7 +7045,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7150,7 +7054,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7162,7 +7066,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7170,7 +7074,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7266,7 +7170,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7309,7 +7213,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7612,7 +7516,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152295</v>
+        <v>20152292</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7636,7 +7540,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7652,7 +7556,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7668,7 +7572,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7684,7 +7588,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7700,7 +7604,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7715,9 +7619,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7725,7 +7627,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7736,7 +7638,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7745,7 +7647,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7757,7 +7659,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7765,7 +7667,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7861,7 +7763,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7904,7 +7806,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8207,7 +8109,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152292</v>
+        <v>20152325</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8231,7 +8133,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8247,7 +8149,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8263,7 +8165,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8279,7 +8181,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8295,7 +8197,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8310,9 +8212,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8320,7 +8220,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8331,7 +8231,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8340,7 +8240,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8352,7 +8252,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8360,7 +8260,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8456,7 +8356,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8483,7 +8383,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8499,7 +8399,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8905,9 +8805,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8915,7 +8813,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8926,7 +8824,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8935,7 +8833,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8947,7 +8845,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8955,7 +8853,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9051,7 +8949,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9094,7 +8992,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9397,7 +9295,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152325</v>
+        <v>20152360</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9421,7 +9319,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9437,7 +9335,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9453,7 +9351,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9469,7 +9367,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9485,7 +9383,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9500,9 +9398,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9510,7 +9406,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9521,7 +9417,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9530,7 +9426,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9542,7 +9438,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9550,7 +9446,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9646,7 +9542,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9673,7 +9569,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9689,7 +9585,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9992,7 +9888,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152360</v>
+        <v>20152297</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10016,7 +9912,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10032,7 +9928,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10048,7 +9944,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10064,7 +9960,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10080,7 +9976,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10095,9 +9991,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10105,7 +9999,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10116,7 +10010,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10125,7 +10019,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10137,7 +10031,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10145,7 +10039,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10241,7 +10135,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10284,7 +10178,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10587,7 +10481,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152297</v>
+        <v>20152293</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10611,7 +10505,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10627,7 +10521,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10643,7 +10537,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10659,7 +10553,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10675,7 +10569,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10690,9 +10584,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10700,7 +10592,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10711,7 +10603,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10720,7 +10612,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10732,7 +10624,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10740,7 +10632,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10836,7 +10728,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10863,7 +10755,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10879,7 +10771,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11182,7 +11074,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152293</v>
+        <v>20152370</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11206,7 +11098,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11222,7 +11114,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11238,7 +11130,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11254,7 +11146,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11270,7 +11162,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11285,9 +11177,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>224</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11295,7 +11185,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11306,7 +11196,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11315,7 +11205,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11327,7 +11217,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11335,7 +11225,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11431,7 +11321,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11474,7 +11364,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11777,7 +11667,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152370</v>
+        <v>20152303</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11801,7 +11691,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11817,7 +11707,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11833,7 +11723,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11849,7 +11739,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11865,7 +11755,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11880,9 +11770,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11890,7 +11778,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11901,7 +11789,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11910,7 +11798,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11922,7 +11810,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11930,7 +11818,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12026,7 +11914,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12053,7 +11941,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12069,7 +11957,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12372,7 +12260,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152303</v>
+        <v>20152291</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12396,7 +12284,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12412,7 +12300,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12428,7 +12316,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12444,7 +12332,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12460,7 +12348,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12475,9 +12363,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12485,7 +12371,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12496,7 +12382,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12505,7 +12391,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12517,7 +12403,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12525,7 +12411,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12621,7 +12507,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12648,7 +12534,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12664,7 +12550,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12967,7 +12853,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152291</v>
+        <v>20152374</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12991,7 +12877,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13007,7 +12893,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13023,7 +12909,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13039,7 +12925,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13055,7 +12941,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13070,9 +12956,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13080,7 +12964,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13091,7 +12975,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13100,7 +12984,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13112,7 +12996,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13120,7 +13004,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13216,7 +13100,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13243,7 +13127,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13259,7 +13143,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13562,7 +13446,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152374</v>
+        <v>20152298</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13586,7 +13470,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13602,7 +13486,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13618,7 +13502,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13634,7 +13518,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13650,7 +13534,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13665,9 +13549,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13675,7 +13557,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13686,7 +13568,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13695,7 +13577,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13707,15 +13589,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>258</v>
+      <c r="H17" s="20">
+        <v>384592</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13811,7 +13693,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13838,7 +13720,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13854,7 +13736,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14157,7 +14039,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152298</v>
+        <v>20152300</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14181,7 +14063,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14197,7 +14079,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14213,7 +14095,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14229,7 +14111,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14245,7 +14127,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14260,9 +14142,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14270,7 +14150,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14281,7 +14161,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14290,7 +14170,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14302,15 +14182,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>384592</v>
+      <c r="H17" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14406,7 +14286,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14449,7 +14329,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14752,7 +14632,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152300</v>
+        <v>20152287</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14776,7 +14656,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14792,7 +14672,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14808,7 +14688,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14824,7 +14704,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14840,7 +14720,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14855,9 +14735,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14865,7 +14743,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14876,7 +14754,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14885,7 +14763,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14897,7 +14775,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14905,7 +14783,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15001,7 +14879,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15044,7 +14922,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15371,7 +15249,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15387,7 +15265,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15403,7 +15281,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15419,7 +15297,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15435,7 +15313,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15450,9 +15328,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15460,7 +15336,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15471,7 +15347,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15480,7 +15356,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15492,7 +15368,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15500,7 +15376,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15596,7 +15472,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15639,7 +15515,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15942,7 +15818,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152287</v>
+        <v>20152363</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15966,7 +15842,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15982,7 +15858,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15998,7 +15874,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16014,7 +15890,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16030,7 +15906,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16045,9 +15921,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16055,7 +15929,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16066,7 +15940,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16075,7 +15949,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16087,7 +15961,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16095,7 +15969,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16191,7 +16065,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16234,7 +16108,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16537,7 +16411,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152363</v>
+        <v>20152316</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16561,7 +16435,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16577,7 +16451,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16593,7 +16467,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16609,7 +16483,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16625,7 +16499,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16640,9 +16514,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16650,7 +16522,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16661,7 +16533,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16670,7 +16542,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16682,7 +16554,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16690,7 +16562,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16786,7 +16658,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16813,7 +16685,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16829,7 +16701,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17132,7 +17004,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152316</v>
+        <v>20152311</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17156,7 +17028,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17172,7 +17044,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17188,7 +17060,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17204,7 +17076,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17220,7 +17092,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17235,9 +17107,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17245,7 +17115,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17256,7 +17126,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17265,7 +17135,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17277,15 +17147,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>293</v>
+      <c r="H17" s="20">
+        <v>8722200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17381,7 +17251,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17408,7 +17278,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17424,7 +17294,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17727,7 +17597,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152311</v>
+        <v>20152318</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17751,7 +17621,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17767,7 +17637,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17783,7 +17653,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17799,7 +17669,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17815,7 +17685,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17830,9 +17700,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17840,7 +17708,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17851,7 +17719,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17860,7 +17728,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17872,15 +17740,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>8722200</v>
+      <c r="H17" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17976,7 +17844,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18003,7 +17871,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18019,7 +17887,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18322,7 +18190,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152318</v>
+        <v>20152305</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18346,7 +18214,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18362,7 +18230,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18378,7 +18246,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18394,7 +18262,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18410,7 +18278,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18425,9 +18293,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18435,7 +18301,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18446,7 +18312,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18455,7 +18321,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18467,7 +18333,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18475,7 +18341,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18571,7 +18437,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18614,7 +18480,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18917,7 +18783,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152305</v>
+        <v>20152302</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18941,7 +18807,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18957,7 +18823,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18973,7 +18839,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18989,7 +18855,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19005,7 +18871,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19020,9 +18886,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19030,7 +18894,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19041,7 +18905,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19050,7 +18914,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19062,7 +18926,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19070,7 +18934,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19166,7 +19030,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19193,7 +19057,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19209,7 +19073,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19512,7 +19376,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152302</v>
+        <v>20152308</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19536,7 +19400,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19552,7 +19416,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19568,7 +19432,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19584,7 +19448,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19600,7 +19464,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19615,9 +19479,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19625,7 +19487,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19636,7 +19498,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19645,7 +19507,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19657,15 +19519,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>321</v>
+      <c r="H17" s="20">
+        <v>2154082</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19761,7 +19623,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19804,7 +19666,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20107,7 +19969,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152308</v>
+        <v>20152361</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20131,7 +19993,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20147,7 +20009,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20163,7 +20025,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20179,7 +20041,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20195,7 +20057,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20210,9 +20072,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20220,7 +20080,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20231,7 +20091,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20240,7 +20100,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20252,15 +20112,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2154082</v>
+      <c r="H17" s="20" t="s">
+        <v>316</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20356,7 +20216,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20399,7 +20259,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20702,7 +20562,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152361</v>
+        <v>20152285</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20726,7 +20586,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20742,7 +20602,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20758,7 +20618,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20774,7 +20634,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20790,7 +20650,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20805,9 +20665,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20815,7 +20673,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20826,7 +20684,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20835,7 +20693,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20847,7 +20705,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20855,7 +20713,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20951,7 +20809,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20978,7 +20836,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20994,7 +20852,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21297,7 +21155,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152285</v>
+        <v>20152309</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21321,7 +21179,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21337,7 +21195,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21353,7 +21211,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21369,7 +21227,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21385,7 +21243,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21400,9 +21258,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>341</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21410,7 +21266,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21421,7 +21277,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21430,7 +21286,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21442,7 +21298,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21450,7 +21306,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21546,7 +21402,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21573,7 +21429,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21589,7 +21445,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21916,7 +21772,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21932,7 +21788,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21948,7 +21804,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21964,7 +21820,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21980,7 +21836,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21995,9 +21851,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22005,7 +21859,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22016,7 +21870,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22025,7 +21879,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22037,7 +21891,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22045,7 +21899,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22141,7 +21995,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22184,7 +22038,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22487,7 +22341,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152309</v>
+        <v>20152367</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22511,7 +22365,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22527,7 +22381,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22543,7 +22397,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22559,7 +22413,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22575,7 +22429,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22590,9 +22444,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>350</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22600,7 +22452,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22611,7 +22463,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22620,7 +22472,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22632,15 +22484,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>351</v>
+      <c r="H17" s="20">
+        <v>3969844</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22736,7 +22588,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22779,7 +22631,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>353</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23082,7 +22934,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152367</v>
+        <v>20152299</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23106,7 +22958,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23122,7 +22974,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23138,7 +22990,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23154,7 +23006,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23170,7 +23022,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23185,9 +23037,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23195,7 +23045,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23206,7 +23056,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23215,7 +23065,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23227,15 +23077,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3969844</v>
+      <c r="H17" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23331,7 +23181,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23358,7 +23208,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23374,7 +23224,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23677,7 +23527,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152299</v>
+        <v>20152286</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23701,7 +23551,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23717,7 +23567,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23733,7 +23583,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23749,7 +23599,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23765,7 +23615,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23780,9 +23630,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23790,7 +23638,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23801,7 +23649,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23810,7 +23658,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23822,7 +23670,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23830,7 +23678,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23926,7 +23774,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23953,7 +23801,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23969,7 +23817,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24272,7 +24120,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152286</v>
+        <v>20152365</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24296,7 +24144,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24312,7 +24160,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24328,7 +24176,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24344,7 +24192,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24360,7 +24208,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24375,9 +24223,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>372</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24385,7 +24231,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24396,7 +24242,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24405,7 +24251,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24417,7 +24263,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24425,7 +24271,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24521,7 +24367,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24548,7 +24394,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24564,7 +24410,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>375</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24867,7 +24713,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152365</v>
+        <v>20152306</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24891,7 +24737,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24907,7 +24753,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24923,7 +24769,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24939,7 +24785,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24955,7 +24801,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24970,9 +24816,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24980,7 +24824,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24991,7 +24835,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25000,7 +24844,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25012,7 +24856,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25020,7 +24864,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25116,7 +24960,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25143,7 +24987,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25159,7 +25003,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25462,7 +25306,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152306</v>
+        <v>20152362</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25486,7 +25330,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25502,7 +25346,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25518,7 +25362,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25534,7 +25378,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25550,7 +25394,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25565,9 +25409,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25575,7 +25417,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25586,7 +25428,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25595,7 +25437,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25607,7 +25449,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25615,7 +25457,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25711,7 +25553,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25738,7 +25580,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25754,7 +25596,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26057,7 +25899,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152362</v>
+        <v>20152289</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26081,7 +25923,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26097,7 +25939,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26113,7 +25955,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26129,7 +25971,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26145,7 +25987,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26160,9 +26002,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26170,7 +26010,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26181,7 +26021,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26190,7 +26030,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26202,7 +26042,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26210,7 +26050,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26306,7 +26146,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26333,7 +26173,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26349,7 +26189,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26600,7 +26440,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -26650,7 +26492,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154446</v>
+        <v>20152323</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26674,7 +26516,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26690,7 +26532,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26705,7 +26547,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>384</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -26719,7 +26563,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>385</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -26733,7 +26579,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -26754,7 +26602,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -26763,14 +26613,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -26780,13 +26634,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>89042630</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -26881,7 +26739,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26907,7 +26765,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -26921,7 +26781,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -27223,7 +27085,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152289</v>
+        <v>20152324</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27247,7 +27109,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27263,7 +27125,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27279,7 +27141,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27295,7 +27157,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27311,7 +27173,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27326,9 +27188,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27336,7 +27196,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27347,7 +27207,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27356,7 +27216,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27368,7 +27228,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27376,7 +27236,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27472,7 +27332,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27499,7 +27359,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27515,7 +27375,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27818,7 +27678,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152323</v>
+        <v>20152358</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27842,7 +27702,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27858,7 +27718,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27874,7 +27734,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27890,7 +27750,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27906,7 +27766,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27921,9 +27781,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>409</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27931,7 +27789,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27942,7 +27800,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27951,7 +27809,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27963,15 +27821,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>89042630</v>
+      <c r="H17" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28067,7 +27925,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28094,7 +27952,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28110,7 +27968,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>402</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28437,7 +28295,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28453,7 +28311,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28469,7 +28327,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28485,7 +28343,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28501,7 +28359,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28516,9 +28374,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28526,7 +28382,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28537,7 +28393,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28546,7 +28402,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28558,7 +28414,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28566,7 +28422,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28662,7 +28518,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28705,7 +28561,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29008,7 +28864,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152324</v>
+        <v>20152322</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29032,7 +28888,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29048,7 +28904,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29064,7 +28920,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29080,7 +28936,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29096,7 +28952,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29111,9 +28967,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29121,7 +28975,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29132,7 +28986,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29141,7 +28995,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29153,7 +29007,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29161,7 +29015,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29257,7 +29111,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29300,7 +29154,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29603,7 +29457,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152358</v>
+        <v>20152369</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29627,7 +29481,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29643,7 +29497,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29659,7 +29513,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29675,7 +29529,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29691,7 +29545,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29706,9 +29560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29716,7 +29568,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29727,7 +29579,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29736,7 +29588,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29748,7 +29600,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29756,7 +29608,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29852,7 +29704,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29895,7 +29747,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>426</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30198,7 +30050,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152322</v>
+        <v>20152310</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -30222,7 +30074,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30238,7 +30090,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30254,7 +30106,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30270,7 +30122,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30286,7 +30138,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30301,9 +30153,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30311,7 +30161,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30322,7 +30172,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30331,7 +30181,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30343,7 +30193,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30351,7 +30201,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30447,7 +30297,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30490,7 +30340,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30793,7 +30643,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152369</v>
+        <v>20152372</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -30817,7 +30667,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30833,7 +30683,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30849,7 +30699,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30865,7 +30715,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30881,7 +30731,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30896,9 +30746,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30906,7 +30754,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30917,7 +30765,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30926,7 +30774,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30938,7 +30786,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30946,7 +30794,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31042,7 +30890,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31069,7 +30917,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -31085,7 +30933,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31388,7 +31236,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152310</v>
+        <v>20152366</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -31412,7 +31260,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31428,7 +31276,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31444,7 +31292,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31460,7 +31308,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31476,7 +31324,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31491,9 +31339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31501,7 +31347,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31512,7 +31358,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31521,7 +31367,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31533,7 +31379,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31541,7 +31387,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31637,7 +31483,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31664,7 +31510,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -31680,7 +31526,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31983,7 +31829,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152372</v>
+        <v>20152375</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -32007,7 +31853,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32023,7 +31869,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32039,7 +31885,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32055,7 +31901,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32071,7 +31917,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32086,9 +31932,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32096,7 +31940,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32107,7 +31951,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32116,7 +31960,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32128,15 +31972,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>453</v>
+      <c r="H17" s="20">
+        <v>3574530</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32232,7 +32076,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32275,7 +32119,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32578,7 +32422,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152366</v>
+        <v>20152313</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -32602,7 +32446,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32618,7 +32462,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32634,7 +32478,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32650,7 +32494,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32666,7 +32510,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32681,9 +32525,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32691,7 +32533,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32702,7 +32544,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32711,7 +32553,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32723,7 +32565,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32731,7 +32573,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32827,7 +32669,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32854,7 +32696,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -32870,7 +32712,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33173,7 +33015,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152375</v>
+        <v>20152326</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -33197,7 +33039,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33213,7 +33055,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33229,7 +33071,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33245,7 +33087,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33261,7 +33103,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33276,9 +33118,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>467</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33286,7 +33126,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33297,7 +33137,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33306,7 +33146,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33318,15 +33158,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3574530</v>
+      <c r="H17" s="20" t="s">
+        <v>456</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33422,7 +33262,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33449,7 +33289,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -33465,7 +33305,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33768,7 +33608,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152313</v>
+        <v>20152296</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -33792,7 +33632,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33808,7 +33648,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33824,7 +33664,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33840,7 +33680,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33856,7 +33696,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33871,9 +33711,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>341</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33881,7 +33719,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33892,7 +33730,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33901,7 +33739,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33913,7 +33751,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33921,7 +33759,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34017,7 +33855,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34044,7 +33882,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -34060,7 +33898,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>344</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34363,7 +34201,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152326</v>
+        <v>20152290</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -34387,7 +34225,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34403,7 +34241,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34419,7 +34257,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34435,7 +34273,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34451,7 +34289,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34466,9 +34304,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34476,7 +34312,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34487,7 +34323,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34496,7 +34332,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34508,15 +34344,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>481</v>
+      <c r="H17" s="20">
+        <v>40102185974</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34612,7 +34448,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34639,7 +34475,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -34655,7 +34491,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34906,7 +34742,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -34956,7 +34794,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154445</v>
+        <v>20152373</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -34980,7 +34818,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34996,7 +34834,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35011,7 +34849,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -35025,7 +34865,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -35039,7 +34881,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -35060,7 +34904,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -35069,14 +34915,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -35086,13 +34936,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -35187,7 +35041,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35213,7 +35067,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -35227,7 +35083,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -35529,7 +35387,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152296</v>
+        <v>20152368</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -35553,7 +35411,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35569,7 +35427,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35585,7 +35443,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35601,7 +35459,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35617,7 +35475,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35632,9 +35490,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35642,7 +35498,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35653,7 +35509,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35662,7 +35518,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35674,7 +35530,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35682,7 +35538,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35778,7 +35634,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35805,7 +35661,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -35821,7 +35677,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>478</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36124,7 +35980,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152290</v>
+        <v>20152307</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -36148,7 +36004,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36164,7 +36020,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36180,7 +36036,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36196,7 +36052,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36212,7 +36068,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36227,9 +36083,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36237,7 +36091,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36248,7 +36102,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36257,7 +36111,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36269,15 +36123,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>40102185974</v>
+      <c r="H17" s="20" t="s">
+        <v>484</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -36373,7 +36227,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36400,7 +36254,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -36416,7 +36270,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>486</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36619,1196 +36473,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152368</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2006</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152307</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>511</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -37832,7 +36496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37965,7 +36629,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152373</v>
+        <v>20152304</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -37989,7 +36653,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -38005,7 +36669,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38021,7 +36685,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38037,7 +36701,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38053,7 +36717,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38068,9 +36732,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38078,7 +36740,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38089,7 +36751,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38098,7 +36760,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38110,7 +36772,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38118,7 +36780,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38214,7 +36876,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38241,7 +36903,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -38257,7 +36919,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -38560,7 +37222,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152304</v>
+        <v>20152320</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -38584,7 +37246,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -38600,7 +37262,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38616,7 +37278,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38632,7 +37294,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38648,7 +37310,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38663,9 +37325,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38673,7 +37333,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38684,7 +37344,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38693,7 +37353,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38705,7 +37365,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38713,7 +37373,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38809,7 +37469,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38836,7 +37496,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -38852,7 +37512,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -39155,7 +37815,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152320</v>
+        <v>20152319</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -39179,7 +37839,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -39195,7 +37855,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -39211,7 +37871,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -39227,7 +37887,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -39243,7 +37903,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -39258,9 +37918,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -39268,7 +37926,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -39279,7 +37937,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -39288,7 +37946,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -39300,7 +37958,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -39431,7 +38089,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
